--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$119</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AK$99</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3934" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3270" uniqueCount="355">
   <si>
     <t>Path</t>
   </si>
@@ -711,34 +711,16 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>LocationCode</t>
-  </si>
-  <si>
     <t>Location openIMIS Code</t>
   </si>
   <si>
     <t>Location Code managed by openIMIS.</t>
   </si>
   <si>
-    <t>LocationUUID</t>
+    <t>UUID</t>
   </si>
   <si>
     <t>Location openIMIS UUID</t>
-  </si>
-  <si>
-    <t>UUID</t>
-  </si>
-  <si>
-    <t>LocationID</t>
-  </si>
-  <si>
-    <t>Location openIMIS Database ID</t>
-  </si>
-  <si>
-    <t>Location Database ID generated by openIMIS.</t>
-  </si>
-  <si>
-    <t>DBID</t>
   </si>
   <si>
     <t>Location.status</t>
@@ -1279,7 +1261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK119"/>
+  <dimension ref="A1:AK99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1289,7 +1271,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="42.9765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.5234375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -4490,7 +4472,7 @@
         <v>103</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>224</v>
+        <v>25</v>
       </c>
       <c r="C31" t="s" s="2">
         <v>38</v>
@@ -5777,10 +5759,10 @@
         <v>66</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" t="s" s="2">
@@ -6598,7 +6580,7 @@
         <v>103</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C51" t="s" s="2">
         <v>38</v>
@@ -7885,7 +7867,7 @@
         <v>66</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>50</v>
@@ -7902,7 +7884,7 @@
         <v>38</v>
       </c>
       <c r="R63" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="S63" t="s" s="2">
         <v>38</v>
@@ -8703,11 +8685,9 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
         <v>38</v>
       </c>
@@ -8722,24 +8702,22 @@
         <v>38</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>104</v>
+        <v>66</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>105</v>
+        <v>229</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>106</v>
+        <v>230</v>
       </c>
       <c r="M71" s="2"/>
-      <c r="N71" t="s" s="2">
-        <v>107</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>38</v>
       </c>
@@ -8748,7 +8726,7 @@
         <v>38</v>
       </c>
       <c r="R71" t="s" s="2">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="S71" t="s" s="2">
         <v>38</v>
@@ -8763,13 +8741,13 @@
         <v>38</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>38</v>
+        <v>232</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>38</v>
+        <v>233</v>
       </c>
       <c r="Z71" t="s" s="2">
         <v>38</v>
@@ -8787,13 +8765,13 @@
         <v>38</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>103</v>
+        <v>228</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>38</v>
@@ -8802,15 +8780,15 @@
         <v>58</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>110</v>
+        <v>234</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>111</v>
+        <v>235</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>112</v>
+        <v>236</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -8821,7 +8799,7 @@
         <v>39</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>38</v>
@@ -8830,16 +8808,16 @@
         <v>38</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>48</v>
+        <v>146</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>113</v>
+        <v>237</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -8866,13 +8844,13 @@
         <v>38</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>38</v>
+        <v>239</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>38</v>
@@ -8890,7 +8868,7 @@
         <v>38</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>39</v>
@@ -8902,50 +8880,50 @@
         <v>38</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ72" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>38</v>
+        <v>235</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>117</v>
+        <v>241</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>93</v>
+        <v>242</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>118</v>
+        <v>243</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>95</v>
+        <v>244</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
@@ -8983,34 +8961,34 @@
         <v>38</v>
       </c>
       <c r="AA73" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AC73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD73" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>122</v>
+        <v>241</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>116</v>
+        <v>245</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>38</v>
@@ -9018,7 +8996,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>123</v>
+        <v>246</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9029,31 +9007,31 @@
         <v>39</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H74" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>124</v>
+        <v>247</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>126</v>
+        <v>249</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>127</v>
+        <v>250</v>
       </c>
       <c r="O74" t="s" s="2">
         <v>38</v>
@@ -9078,13 +9056,13 @@
         <v>38</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>129</v>
+        <v>38</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>130</v>
+        <v>38</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>38</v>
@@ -9102,13 +9080,13 @@
         <v>38</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>131</v>
+        <v>246</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>38</v>
@@ -9117,7 +9095,7 @@
         <v>58</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>38</v>
@@ -9125,7 +9103,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9136,7 +9114,7 @@
         <v>39</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>38</v>
@@ -9148,19 +9126,17 @@
         <v>47</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>134</v>
+        <v>48</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>135</v>
+        <v>252</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M75" s="2"/>
       <c r="N75" t="s" s="2">
-        <v>138</v>
+        <v>254</v>
       </c>
       <c r="O75" t="s" s="2">
         <v>38</v>
@@ -9185,13 +9161,13 @@
         <v>38</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>140</v>
+        <v>38</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>141</v>
+        <v>38</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>38</v>
@@ -9209,7 +9185,7 @@
         <v>38</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>142</v>
+        <v>251</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>39</v>
@@ -9224,7 +9200,7 @@
         <v>58</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>132</v>
+        <v>255</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>38</v>
@@ -9232,7 +9208,7 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>143</v>
+        <v>256</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9252,19 +9228,23 @@
         <v>38</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+        <v>258</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>38</v>
       </c>
@@ -9273,7 +9253,7 @@
         <v>38</v>
       </c>
       <c r="R76" t="s" s="2">
-        <v>38</v>
+        <v>261</v>
       </c>
       <c r="S76" t="s" s="2">
         <v>38</v>
@@ -9288,13 +9268,13 @@
         <v>38</v>
       </c>
       <c r="W76" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>38</v>
+        <v>258</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>38</v>
+        <v>262</v>
       </c>
       <c r="Z76" t="s" s="2">
         <v>38</v>
@@ -9312,7 +9292,7 @@
         <v>38</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>115</v>
+        <v>256</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>39</v>
@@ -9324,29 +9304,29 @@
         <v>38</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>116</v>
+        <v>263</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>38</v>
@@ -9355,20 +9335,18 @@
         <v>38</v>
       </c>
       <c r="I77" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>93</v>
+        <v>266</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>95</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>38</v>
@@ -9393,31 +9371,31 @@
         <v>38</v>
       </c>
       <c r="W77" t="s" s="2">
-        <v>38</v>
+        <v>139</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>38</v>
+        <v>267</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>38</v>
+        <v>268</v>
       </c>
       <c r="Z77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA77" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AB77" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AC77" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD77" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>122</v>
+        <v>265</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>39</v>
@@ -9429,18 +9407,18 @@
         <v>38</v>
       </c>
       <c r="AI77" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>116</v>
+        <v>269</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>145</v>
+        <v>270</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9451,7 +9429,7 @@
         <v>39</v>
       </c>
       <c r="F78" t="s" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>38</v>
@@ -9460,23 +9438,19 @@
         <v>38</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J78" t="s" s="2">
-        <v>146</v>
+        <v>271</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>147</v>
+        <v>272</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>148</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>150</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="M78" s="2"/>
+      <c r="N78" s="2"/>
       <c r="O78" t="s" s="2">
         <v>38</v>
       </c>
@@ -9524,7 +9498,7 @@
         <v>38</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>39</v>
@@ -9539,7 +9513,7 @@
         <v>58</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>152</v>
+        <v>274</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>38</v>
@@ -9547,7 +9521,7 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
@@ -9558,7 +9532,7 @@
         <v>39</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>38</v>
@@ -9570,16 +9544,20 @@
         <v>38</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>48</v>
+        <v>276</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>113</v>
+        <v>277</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
+        <v>278</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O79" t="s" s="2">
         <v>38</v>
       </c>
@@ -9627,7 +9605,7 @@
         <v>38</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>115</v>
+        <v>275</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>39</v>
@@ -9639,52 +9617,52 @@
         <v>38</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>116</v>
+        <v>281</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>154</v>
+        <v>282</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
-        <v>91</v>
+        <v>38</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F80" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>93</v>
+        <v>283</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" t="s" s="2">
+        <v>285</v>
+      </c>
       <c r="O80" t="s" s="2">
         <v>38</v>
       </c>
@@ -9708,54 +9686,52 @@
         <v>38</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>38</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="X80" s="2"/>
       <c r="Y80" t="s" s="2">
-        <v>38</v>
+        <v>286</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AA80" t="s" s="2">
-        <v>119</v>
+        <v>38</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="AC80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AD80" t="s" s="2">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>122</v>
+        <v>282</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH80" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI80" t="s" s="2">
-        <v>97</v>
+        <v>58</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>116</v>
+        <v>287</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>38</v>
+        <v>264</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>155</v>
+        <v>288</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -9766,7 +9742,7 @@
         <v>39</v>
       </c>
       <c r="F81" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>38</v>
@@ -9775,22 +9751,20 @@
         <v>38</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>60</v>
+        <v>289</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>156</v>
+        <v>290</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M81" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="M81" s="2"/>
       <c r="N81" t="s" s="2">
-        <v>159</v>
+        <v>292</v>
       </c>
       <c r="O81" t="s" s="2">
         <v>38</v>
@@ -9839,7 +9813,7 @@
         <v>38</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>39</v>
@@ -9854,7 +9828,7 @@
         <v>58</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>161</v>
+        <v>293</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>38</v>
@@ -9862,7 +9836,7 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>162</v>
+        <v>294</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" t="s" s="2">
@@ -9882,20 +9856,18 @@
         <v>38</v>
       </c>
       <c r="I82" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J82" t="s" s="2">
         <v>48</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="M82" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="M82" s="2"/>
       <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>38</v>
@@ -9944,7 +9916,7 @@
         <v>38</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>166</v>
+        <v>115</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>39</v>
@@ -9956,10 +9928,10 @@
         <v>38</v>
       </c>
       <c r="AI82" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>167</v>
+        <v>116</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>38</v>
@@ -9967,18 +9939,18 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>168</v>
+        <v>295</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>38</v>
@@ -9987,21 +9959,21 @@
         <v>38</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>66</v>
+        <v>92</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>231</v>
+        <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M83" s="2"/>
-      <c r="N83" t="s" s="2">
-        <v>171</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>38</v>
       </c>
@@ -10010,7 +9982,7 @@
         <v>38</v>
       </c>
       <c r="R83" t="s" s="2">
-        <v>233</v>
+        <v>38</v>
       </c>
       <c r="S83" t="s" s="2">
         <v>38</v>
@@ -10049,22 +10021,22 @@
         <v>38</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>174</v>
+        <v>116</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>38</v>
@@ -10072,40 +10044,42 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>175</v>
+        <v>296</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="H84" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="I84" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="M84" s="2"/>
+        <v>299</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N84" t="s" s="2">
-        <v>178</v>
+        <v>101</v>
       </c>
       <c r="O84" t="s" s="2">
         <v>38</v>
@@ -10154,22 +10128,22 @@
         <v>38</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>179</v>
+        <v>300</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>180</v>
+        <v>89</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>38</v>
@@ -10177,7 +10151,7 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10185,7 +10159,7 @@
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F85" t="s" s="2">
         <v>46</v>
@@ -10197,23 +10171,19 @@
         <v>38</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>182</v>
+        <v>302</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>183</v>
+        <v>303</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>184</v>
-      </c>
-      <c r="M85" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>186</v>
-      </c>
+        <v>304</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
         <v>38</v>
       </c>
@@ -10261,10 +10231,10 @@
         <v>38</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>187</v>
+        <v>301</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>46</v>
@@ -10276,7 +10246,7 @@
         <v>58</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>188</v>
+        <v>305</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>38</v>
@@ -10284,7 +10254,7 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>189</v>
+        <v>306</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10292,7 +10262,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>46</v>
@@ -10304,23 +10274,19 @@
         <v>38</v>
       </c>
       <c r="I86" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>48</v>
+        <v>302</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>190</v>
+        <v>307</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M86" t="s" s="2">
-        <v>192</v>
-      </c>
-      <c r="N86" t="s" s="2">
-        <v>193</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
         <v>38</v>
       </c>
@@ -10368,10 +10334,10 @@
         <v>38</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>194</v>
+        <v>306</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>46</v>
@@ -10383,7 +10349,7 @@
         <v>58</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>195</v>
+        <v>305</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>38</v>
@@ -10391,7 +10357,7 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>196</v>
+        <v>309</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10411,23 +10377,19 @@
         <v>38</v>
       </c>
       <c r="I87" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>60</v>
+        <v>302</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="M87" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>200</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" s="2"/>
       <c r="O87" t="s" s="2">
         <v>38</v>
       </c>
@@ -10439,7 +10401,7 @@
         <v>38</v>
       </c>
       <c r="S87" t="s" s="2">
-        <v>201</v>
+        <v>38</v>
       </c>
       <c r="T87" t="s" s="2">
         <v>38</v>
@@ -10475,7 +10437,7 @@
         <v>38</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>202</v>
+        <v>309</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>39</v>
@@ -10490,7 +10452,7 @@
         <v>58</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>203</v>
+        <v>305</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>38</v>
@@ -10498,7 +10460,7 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10509,7 +10471,7 @@
         <v>39</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>38</v>
@@ -10521,18 +10483,20 @@
         <v>47</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>48</v>
+        <v>218</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>205</v>
+        <v>313</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>206</v>
+        <v>314</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>315</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>316</v>
+      </c>
       <c r="O88" t="s" s="2">
         <v>38</v>
       </c>
@@ -10544,7 +10508,7 @@
         <v>38</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>208</v>
+        <v>38</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>38</v>
@@ -10580,7 +10544,7 @@
         <v>38</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>209</v>
+        <v>312</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>39</v>
@@ -10595,15 +10559,15 @@
         <v>58</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>210</v>
+        <v>317</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>211</v>
+        <v>318</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -10617,25 +10581,27 @@
         <v>46</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>38</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>212</v>
+        <v>319</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>213</v>
+        <v>320</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>214</v>
+        <v>321</v>
       </c>
       <c r="M89" s="2"/>
-      <c r="N89" s="2"/>
+      <c r="N89" t="s" s="2">
+        <v>322</v>
+      </c>
       <c r="O89" t="s" s="2">
         <v>38</v>
       </c>
@@ -10683,7 +10649,7 @@
         <v>38</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>39</v>
@@ -10698,7 +10664,7 @@
         <v>58</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>216</v>
+        <v>323</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>38</v>
@@ -10706,7 +10672,7 @@
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -10717,7 +10683,7 @@
         <v>39</v>
       </c>
       <c r="F90" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>38</v>
@@ -10726,19 +10692,19 @@
         <v>38</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>218</v>
+        <v>289</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>219</v>
+        <v>325</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>220</v>
+        <v>326</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>221</v>
+        <v>327</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
@@ -10788,13 +10754,13 @@
         <v>38</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>222</v>
+        <v>324</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>38</v>
@@ -10803,7 +10769,7 @@
         <v>58</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>223</v>
+        <v>328</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>38</v>
@@ -10811,7 +10777,7 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>234</v>
+        <v>329</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
@@ -10828,19 +10794,19 @@
         <v>38</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>235</v>
+        <v>113</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>236</v>
+        <v>114</v>
       </c>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -10852,7 +10818,7 @@
         <v>38</v>
       </c>
       <c r="R91" t="s" s="2">
-        <v>237</v>
+        <v>38</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>38</v>
@@ -10867,13 +10833,13 @@
         <v>38</v>
       </c>
       <c r="W91" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>238</v>
+        <v>38</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>239</v>
+        <v>38</v>
       </c>
       <c r="Z91" t="s" s="2">
         <v>38</v>
@@ -10891,7 +10857,7 @@
         <v>38</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>234</v>
+        <v>115</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>39</v>
@@ -10903,29 +10869,29 @@
         <v>38</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="AJ91" t="s" s="2">
-        <v>240</v>
+        <v>116</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>242</v>
+        <v>330</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>38</v>
@@ -10934,18 +10900,20 @@
         <v>38</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>146</v>
+        <v>92</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>243</v>
+        <v>93</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M92" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>95</v>
+      </c>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>38</v>
@@ -10970,13 +10938,13 @@
         <v>38</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>245</v>
+        <v>38</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>246</v>
+        <v>38</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>38</v>
@@ -10994,64 +10962,66 @@
         <v>38</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>242</v>
+        <v>122</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ92" t="s" s="2">
         <v>116</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>241</v>
+        <v>38</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>247</v>
+        <v>331</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>38</v>
+        <v>297</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="H93" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="H93" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>47</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="N93" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="O93" t="s" s="2">
         <v>38</v>
       </c>
@@ -11099,22 +11069,22 @@
         <v>38</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>247</v>
+        <v>300</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>58</v>
+        <v>97</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>251</v>
+        <v>89</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>38</v>
@@ -11122,7 +11092,7 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11133,7 +11103,7 @@
         <v>39</v>
       </c>
       <c r="F94" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>38</v>
@@ -11145,20 +11115,16 @@
         <v>38</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>253</v>
+        <v>333</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="M94" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M94" s="2"/>
+      <c r="N94" s="2"/>
       <c r="O94" t="s" s="2">
         <v>38</v>
       </c>
@@ -11182,13 +11148,13 @@
         <v>38</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>38</v>
+        <v>128</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>38</v>
+        <v>335</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>38</v>
+        <v>336</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>38</v>
@@ -11206,7 +11172,7 @@
         <v>38</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>252</v>
+        <v>332</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>39</v>
@@ -11221,7 +11187,7 @@
         <v>58</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>251</v>
+        <v>328</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>38</v>
@@ -11229,7 +11195,7 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11240,7 +11206,7 @@
         <v>39</v>
       </c>
       <c r="F95" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>38</v>
@@ -11249,21 +11215,19 @@
         <v>38</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>48</v>
+        <v>182</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>258</v>
+        <v>338</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>259</v>
+        <v>339</v>
       </c>
       <c r="M95" s="2"/>
-      <c r="N95" t="s" s="2">
-        <v>260</v>
-      </c>
+      <c r="N95" s="2"/>
       <c r="O95" t="s" s="2">
         <v>38</v>
       </c>
@@ -11311,7 +11275,7 @@
         <v>38</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>257</v>
+        <v>337</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>39</v>
@@ -11326,7 +11290,7 @@
         <v>58</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>261</v>
+        <v>328</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>38</v>
@@ -11334,7 +11298,7 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11354,23 +11318,19 @@
         <v>38</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>66</v>
+        <v>341</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>263</v>
+        <v>342</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M96" s="2"/>
+      <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>38</v>
       </c>
@@ -11379,7 +11339,7 @@
         <v>38</v>
       </c>
       <c r="R96" t="s" s="2">
-        <v>267</v>
+        <v>38</v>
       </c>
       <c r="S96" t="s" s="2">
         <v>38</v>
@@ -11394,13 +11354,13 @@
         <v>38</v>
       </c>
       <c r="W96" t="s" s="2">
-        <v>128</v>
+        <v>38</v>
       </c>
       <c r="X96" t="s" s="2">
-        <v>264</v>
+        <v>38</v>
       </c>
       <c r="Y96" t="s" s="2">
-        <v>268</v>
+        <v>38</v>
       </c>
       <c r="Z96" t="s" s="2">
         <v>38</v>
@@ -11418,7 +11378,7 @@
         <v>38</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>262</v>
+        <v>340</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>39</v>
@@ -11433,15 +11393,15 @@
         <v>58</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>269</v>
+        <v>328</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>270</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11452,7 +11412,7 @@
         <v>39</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>38</v>
@@ -11461,16 +11421,16 @@
         <v>38</v>
       </c>
       <c r="I97" t="s" s="2">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>134</v>
+        <v>341</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>273</v>
+        <v>346</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -11497,13 +11457,13 @@
         <v>38</v>
       </c>
       <c r="W97" t="s" s="2">
-        <v>139</v>
+        <v>38</v>
       </c>
       <c r="X97" t="s" s="2">
-        <v>273</v>
+        <v>38</v>
       </c>
       <c r="Y97" t="s" s="2">
-        <v>274</v>
+        <v>38</v>
       </c>
       <c r="Z97" t="s" s="2">
         <v>38</v>
@@ -11521,13 +11481,13 @@
         <v>38</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>271</v>
+        <v>344</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>38</v>
@@ -11536,15 +11496,15 @@
         <v>58</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>275</v>
+        <v>328</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>270</v>
+        <v>38</v>
       </c>
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11567,13 +11527,13 @@
         <v>38</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>277</v>
+        <v>48</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>278</v>
+        <v>348</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>279</v>
+        <v>349</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -11624,13 +11584,13 @@
         <v>38</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>38</v>
@@ -11639,7 +11599,7 @@
         <v>58</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>280</v>
+        <v>116</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>38</v>
@@ -11647,7 +11607,7 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -11670,19 +11630,17 @@
         <v>38</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>283</v>
+        <v>352</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="M99" t="s" s="2">
-        <v>285</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M99" s="2"/>
       <c r="N99" t="s" s="2">
-        <v>286</v>
+        <v>354</v>
       </c>
       <c r="O99" t="s" s="2">
         <v>38</v>
@@ -11731,13 +11689,13 @@
         <v>38</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>281</v>
+        <v>350</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>38</v>
@@ -11746,2098 +11704,14 @@
         <v>58</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>287</v>
+        <v>116</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="B100" s="2"/>
-      <c r="C100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D100" s="2"/>
-      <c r="E100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G100" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I100" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J100" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="K100" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L100" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M100" s="2"/>
-      <c r="N100" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="O100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P100" s="2"/>
-      <c r="Q100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W100" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="X100" s="2"/>
-      <c r="Y100" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="Z100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE100" t="s" s="2">
-        <v>288</v>
-      </c>
-      <c r="AF100" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG100" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH100" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI100" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ100" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AK100" t="s" s="2">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="101" hidden="true">
-      <c r="A101" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D101" s="2"/>
-      <c r="E101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J101" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="K101" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="L101" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M101" s="2"/>
-      <c r="N101" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P101" s="2"/>
-      <c r="Q101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE101" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF101" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG101" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH101" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI101" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ101" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="AK101" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="102" hidden="true">
-      <c r="A102" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B102" s="2"/>
-      <c r="C102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D102" s="2"/>
-      <c r="E102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F102" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J102" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K102" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L102" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M102" s="2"/>
-      <c r="N102" s="2"/>
-      <c r="O102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P102" s="2"/>
-      <c r="Q102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE102" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF102" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG102" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK102" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="103" hidden="true">
-      <c r="A103" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="B103" s="2"/>
-      <c r="C103" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D103" s="2"/>
-      <c r="E103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P103" s="2"/>
-      <c r="Q103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="104" hidden="true">
-      <c r="A104" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="B104" s="2"/>
-      <c r="C104" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D104" s="2"/>
-      <c r="E104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H104" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I104" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J104" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K104" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L104" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M104" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N104" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P104" s="2"/>
-      <c r="Q104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE104" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF104" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG104" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH104" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI104" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ104" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AK104" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="105" hidden="true">
-      <c r="A105" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="B105" s="2"/>
-      <c r="C105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D105" s="2"/>
-      <c r="E105" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F105" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J105" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="K105" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="L105" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="M105" s="2"/>
-      <c r="N105" s="2"/>
-      <c r="O105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P105" s="2"/>
-      <c r="Q105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE105" t="s" s="2">
-        <v>307</v>
-      </c>
-      <c r="AF105" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG105" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH105" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI105" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ105" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AK105" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="106" hidden="true">
-      <c r="A106" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="B106" s="2"/>
-      <c r="C106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D106" s="2"/>
-      <c r="E106" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="F106" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J106" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="K106" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="M106" s="2"/>
-      <c r="N106" s="2"/>
-      <c r="O106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P106" s="2"/>
-      <c r="Q106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AG106" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH106" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI106" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ106" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AK106" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="107" hidden="true">
-      <c r="A107" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="B107" s="2"/>
-      <c r="C107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D107" s="2"/>
-      <c r="E107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F107" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J107" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="K107" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L107" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="M107" s="2"/>
-      <c r="N107" s="2"/>
-      <c r="O107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P107" s="2"/>
-      <c r="Q107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE107" t="s" s="2">
-        <v>315</v>
-      </c>
-      <c r="AF107" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG107" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH107" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI107" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ107" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="AK107" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="108" hidden="true">
-      <c r="A108" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="B108" s="2"/>
-      <c r="C108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D108" s="2"/>
-      <c r="E108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I108" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J108" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="K108" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L108" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P108" s="2"/>
-      <c r="Q108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE108" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AF108" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG108" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH108" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI108" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ108" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="AK108" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B109" s="2"/>
-      <c r="C109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D109" s="2"/>
-      <c r="E109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F109" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G109" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="H109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J109" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="K109" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="L109" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M109" s="2"/>
-      <c r="N109" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="O109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P109" s="2"/>
-      <c r="Q109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE109" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="AF109" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG109" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH109" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI109" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ109" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="AK109" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N110" s="2"/>
-      <c r="O110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>114</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>118</v>
-      </c>
-      <c r="M112" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>122</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="M113" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N113" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="O113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="114" hidden="true">
-      <c r="A114" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B114" s="2"/>
-      <c r="C114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D114" s="2"/>
-      <c r="E114" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="G114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J114" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="K114" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="L114" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="M114" s="2"/>
-      <c r="N114" s="2"/>
-      <c r="O114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P114" s="2"/>
-      <c r="Q114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W114" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="X114" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="Y114" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="Z114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE114" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="AF114" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG114" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH114" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI114" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ114" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK114" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="115" hidden="true">
-      <c r="A115" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="B115" s="2"/>
-      <c r="C115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D115" s="2"/>
-      <c r="E115" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F115" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J115" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="K115" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="L115" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="M115" s="2"/>
-      <c r="N115" s="2"/>
-      <c r="O115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P115" s="2"/>
-      <c r="Q115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE115" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="AF115" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG115" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH115" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI115" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ115" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK115" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="116" hidden="true">
-      <c r="A116" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B116" s="2"/>
-      <c r="C116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D116" s="2"/>
-      <c r="E116" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F116" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J116" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="K116" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L116" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M116" s="2"/>
-      <c r="N116" s="2"/>
-      <c r="O116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P116" s="2"/>
-      <c r="Q116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE116" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF116" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG116" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH116" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI116" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ116" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK116" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="117" hidden="true">
-      <c r="A117" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="B117" s="2"/>
-      <c r="C117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D117" s="2"/>
-      <c r="E117" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F117" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="G117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J117" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="K117" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="L117" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="M117" s="2"/>
-      <c r="N117" s="2"/>
-      <c r="O117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P117" s="2"/>
-      <c r="Q117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE117" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AF117" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG117" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH117" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI117" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ117" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AK117" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="118" hidden="true">
-      <c r="A118" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="B118" s="2"/>
-      <c r="C118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D118" s="2"/>
-      <c r="E118" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F118" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J118" t="s" s="2">
-        <v>48</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="L118" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M118" s="2"/>
-      <c r="N118" s="2"/>
-      <c r="O118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P118" s="2"/>
-      <c r="Q118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE118" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="AF118" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG118" t="s" s="2">
-        <v>46</v>
-      </c>
-      <c r="AH118" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI118" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ118" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK118" t="s" s="2">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="119" hidden="true">
-      <c r="A119" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="B119" s="2"/>
-      <c r="C119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="D119" s="2"/>
-      <c r="E119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="F119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="G119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="H119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="I119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="J119" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="K119" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="L119" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M119" s="2"/>
-      <c r="N119" t="s" s="2">
-        <v>360</v>
-      </c>
-      <c r="O119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="P119" s="2"/>
-      <c r="Q119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="R119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="S119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="T119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="U119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="V119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="W119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="X119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Y119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="Z119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AA119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AB119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AC119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AD119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AE119" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="AF119" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG119" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AH119" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AI119" t="s" s="2">
-        <v>58</v>
-      </c>
-      <c r="AJ119" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="AK119" t="s" s="2">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK119">
+  <autoFilter ref="A1:AK99">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -13847,7 +11721,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI118">
+  <conditionalFormatting sqref="A2:AI98">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:19:28+00:00</t>
+    <t>2021-09-01T13:21:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-01T13:21:06+00:00</t>
+    <t>2021-09-14T14:32:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:32:44+00:00</t>
+    <t>2021-09-14T14:33:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-14T14:33:18+00:00</t>
+    <t>2021-09-15T10:06:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:06:59+00:00</t>
+    <t>2021-09-15T10:19:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-15T10:19:11+00:00</t>
+    <t>2021-09-17T09:55:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:55:36+00:00</t>
+    <t>2021-09-17T09:56:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T09:56:14+00:00</t>
+    <t>2021-09-17T10:31:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:02+00:00</t>
+    <t>2021-09-17T10:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T10:31:57+00:00</t>
+    <t>2021-09-17T16:55:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:55:55+00:00</t>
+    <t>2021-09-17T16:56:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-17T16:56:25+00:00</t>
+    <t>2021-09-22T12:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:02+00:00</t>
+    <t>2021-09-22T12:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-22T12:13:26+00:00</t>
+    <t>2021-09-28T15:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:53:34+00:00</t>
+    <t>2021-09-28T15:56:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T15:56:03+00:00</t>
+    <t>2021-09-29T08:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:15:04+00:00</t>
+    <t>2021-09-29T08:31:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-29T08:31:05+00:00</t>
+    <t>2021-10-04T14:35:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T14:35:02+00:00</t>
+    <t>2021-10-04T15:11:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:11:02+00:00</t>
+    <t>2021-10-04T15:40:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:40:49+00:00</t>
+    <t>2021-10-04T15:42:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-04T15:42:19+00:00</t>
+    <t>2021-10-05T10:19:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-05T10:19:44+00:00</t>
+    <t>2021-10-12T16:14:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:14:04+00:00</t>
+    <t>2021-10-12T16:15:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-12T16:15:17+00:00</t>
+    <t>2021-10-13T13:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-13T13:46:56+00:00</t>
+    <t>2021-10-14T17:10:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:10:41+00:00</t>
+    <t>2021-10-14T17:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-14T17:11:38+00:00</t>
+    <t>2021-10-18T09:02:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T09:02:35+00:00</t>
+    <t>2021-10-18T10:54:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-18T10:54:05+00:00</t>
+    <t>2021-11-12T15:53:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T15:53:21+00:00</t>
+    <t>2021-11-12T16:19:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:19:51+00:00</t>
+    <t>2021-11-12T16:20:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-12T16:20:31+00:00</t>
+    <t>2021-11-15T18:47:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:47:56+00:00</t>
+    <t>2021-11-15T18:48:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-15T18:48:44+00:00</t>
+    <t>2021-11-16T09:50:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-16T09:50:19+00:00</t>
+    <t>2021-11-22T10:47:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-22T10:47:57+00:00</t>
+    <t>2021-12-04T14:00:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:00:22+00:00</t>
+    <t>2021-12-04T14:25:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:25:43+00:00</t>
+    <t>2021-12-04T14:41:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-04T14:41:27+00:00</t>
+    <t>2021-12-08T10:28:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T10:28:46+00:00</t>
+    <t>2021-12-16T15:29:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T15:29:31+00:00</t>
+    <t>2021-12-20T14:56:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T14:56:49+00:00</t>
+    <t>2021-12-20T16:29:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-20T16:29:48+00:00</t>
+    <t>2021-12-21T09:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-21T09:16:10+00:00</t>
+    <t>2021-12-22T09:53:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,13 +60,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-22T09:53:41+00:00</t>
+    <t>2022-03-01T16:36:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Swiss TPH</t>
+    <t>openIMIS Initiative</t>
   </si>
   <si>
     <t>Contact</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-01T16:36:49+00:00</t>
+    <t>2022-05-11T15:46:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-11T15:46:18+00:00</t>
+    <t>2022-05-12T06:50:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T06:50:16+00:00</t>
+    <t>2022-05-12T07:23:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-12T07:23:31+00:00</t>
+    <t>2022-05-17T09:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>1.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-17T09:34:33+00:00</t>
+    <t>2022-05-31T10:54:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-openimis-location.xlsx
+++ b/StructureDefinition-openimis-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T10:54:20+00:00</t>
+    <t>2022-05-31T10:56:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
